--- a/storage/app/newsocios.xlsx
+++ b/storage/app/newsocios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan Carlos\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF5175B-56CF-43D7-920C-D3547695CC76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EEDF5A4-4347-4FAB-A30E-6E57FC877F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -128,7 +128,8 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-01/01/1989</t>
+1989-12-01
+AAAA-MM-DD</t>
         </r>
       </text>
     </comment>
@@ -572,7 +573,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
